--- a/Fall-2013-KATE-post.xlsx
+++ b/Fall-2013-KATE-post.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="454">
   <si>
     <t>AF1031</t>
   </si>
@@ -1385,6 +1385,9 @@
   </si>
   <si>
     <t>Xvalues</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -21061,7 +21064,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -21103,10 +21106,10 @@
         <v>76</v>
       </c>
       <c r="B2" s="20">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C2" s="20">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -21122,12 +21125,8 @@
       <c r="A3" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="20">
-        <v>15</v>
-      </c>
-      <c r="C3" s="20">
-        <v>15</v>
-      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="22">
         <v>1</v>
       </c>
@@ -21142,12 +21141,8 @@
       <c r="A4" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="20">
-        <v>17</v>
-      </c>
-      <c r="C4" s="20">
-        <v>14</v>
-      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="22">
         <v>2</v>
       </c>
@@ -21163,10 +21158,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="20">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C5" s="20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -21182,11 +21177,11 @@
       <c r="A6" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="20">
-        <v>0</v>
+      <c r="B6" s="20" t="s">
+        <v>453</v>
       </c>
       <c r="C6" s="20">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
@@ -21203,10 +21198,10 @@
         <v>203</v>
       </c>
       <c r="B7" s="20">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" s="20">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D7" s="22">
         <v>2</v>
@@ -21223,10 +21218,10 @@
         <v>280</v>
       </c>
       <c r="B8" s="20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" s="20">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" s="22">
         <v>2</v>
@@ -21242,11 +21237,11 @@
       <c r="A9" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="20">
-        <v>0</v>
+      <c r="B9" s="20" t="s">
+        <v>453</v>
       </c>
       <c r="C9" s="20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="22">
         <v>2</v>
@@ -21263,10 +21258,10 @@
         <v>64</v>
       </c>
       <c r="B10" s="20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" s="20">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
@@ -21283,10 +21278,10 @@
         <v>215</v>
       </c>
       <c r="B11" s="20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C11" s="20">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -21306,7 +21301,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="20">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D12" s="22">
         <v>1</v>
@@ -21323,10 +21318,10 @@
         <v>270</v>
       </c>
       <c r="B13" s="20">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13" s="20">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -21343,10 +21338,10 @@
         <v>225</v>
       </c>
       <c r="B14" s="20">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C14" s="20">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D14" s="22">
         <v>1</v>
@@ -21363,10 +21358,10 @@
         <v>313</v>
       </c>
       <c r="B15" s="20">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" s="20">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
@@ -21383,10 +21378,10 @@
         <v>149</v>
       </c>
       <c r="B16" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="20">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D16" s="22">
         <v>1</v>
@@ -21403,10 +21398,10 @@
         <v>115</v>
       </c>
       <c r="B17" s="20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="20">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D17" s="22">
         <v>1</v>
@@ -21422,12 +21417,8 @@
       <c r="A18" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="20">
-        <v>15</v>
-      </c>
-      <c r="C18" s="20">
-        <v>19</v>
-      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="22">
         <v>1</v>
       </c>
@@ -21442,12 +21433,8 @@
       <c r="A19" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="B19" s="20">
-        <v>21</v>
-      </c>
-      <c r="C19" s="20">
-        <v>25</v>
-      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="22">
         <v>2</v>
       </c>
@@ -21462,12 +21449,8 @@
       <c r="A20" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B20" s="20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="20">
-        <v>11</v>
-      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="22">
         <v>1</v>
       </c>
@@ -21482,12 +21465,8 @@
       <c r="A21" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B21" s="20">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20">
-        <v>17</v>
-      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="22">
         <v>1</v>
       </c>
@@ -21502,12 +21481,8 @@
       <c r="A22" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="20">
-        <v>12</v>
-      </c>
-      <c r="C22" s="20">
-        <v>17</v>
-      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="22">
         <v>1</v>
       </c>
@@ -21522,12 +21497,8 @@
       <c r="A23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="20">
-        <v>14</v>
-      </c>
-      <c r="C23" s="20">
-        <v>9</v>
-      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="22">
         <v>1</v>
       </c>
@@ -21542,12 +21513,8 @@
       <c r="A24" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="20">
-        <v>0</v>
-      </c>
-      <c r="C24" s="20">
-        <v>16</v>
-      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="22">
         <v>1</v>
       </c>
@@ -21562,12 +21529,8 @@
       <c r="A25" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="20">
-        <v>0</v>
-      </c>
-      <c r="C25" s="20">
-        <v>20</v>
-      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="22">
         <v>1</v>
       </c>
@@ -21582,12 +21545,8 @@
       <c r="A26" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="20">
-        <v>4</v>
-      </c>
-      <c r="C26" s="20">
-        <v>11</v>
-      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="22">
         <v>1</v>
       </c>
@@ -21602,12 +21561,8 @@
       <c r="A27" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="20">
-        <v>8</v>
-      </c>
-      <c r="C27" s="20">
-        <v>16</v>
-      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="22">
         <v>1</v>
       </c>
@@ -21622,12 +21577,8 @@
       <c r="A28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="20">
-        <v>0</v>
-      </c>
-      <c r="C28" s="20">
-        <v>20</v>
-      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="22">
         <v>1</v>
       </c>
@@ -21642,12 +21593,8 @@
       <c r="A29" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="20">
-        <v>0</v>
-      </c>
-      <c r="C29" s="20">
-        <v>18</v>
-      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="22">
         <v>1</v>
       </c>
@@ -21662,12 +21609,8 @@
       <c r="A30" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="20">
-        <v>23</v>
-      </c>
-      <c r="C30" s="20">
-        <v>18</v>
-      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="22">
         <v>1</v>
       </c>
